--- a/medicine/Handicap/La_consagración_de_la_primavera/La_consagración_de_la_primavera.xlsx
+++ b/medicine/Handicap/La_consagración_de_la_primavera/La_consagración_de_la_primavera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_consagraci%C3%B3n_de_la_primavera</t>
+          <t>La_consagración_de_la_primavera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La consagración de la primavera est un film espagnol réalisé par Fernando Franco, sorti en 2022.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_consagraci%C3%B3n_de_la_primavera</t>
+          <t>La_consagración_de_la_primavera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Laura, une jeune femme issue d'un milieu conservateur, déménage à Madrid pour étudier la chimie. Elle y rencontre David, un garçon atteint de paralysie cérébrale et qui vit avec sa mère, Isabel. Laura devient amie avec eux et accepte de rendre des faveurs sexuelles à David contre de l'argent.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_consagraci%C3%B3n_de_la_primavera</t>
+          <t>La_consagración_de_la_primavera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La consagración de la primavera
 Réalisation : Fernando Franco
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_consagraci%C3%B3n_de_la_primavera</t>
+          <t>La_consagración_de_la_primavera</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Telmo Irureta : David
 Valèria Sorolla : Laura
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_consagraci%C3%B3n_de_la_primavera</t>
+          <t>La_consagración_de_la_primavera</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour deux prix Goya e a reçu le prix Goya du meilleur espoir masculin pour Telmo Irureta[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour deux prix Goya e a reçu le prix Goya du meilleur espoir masculin pour Telmo Irureta.
 </t>
         </is>
       </c>
